--- a/withdraw.xlsx
+++ b/withdraw.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -53,10 +53,19 @@
     <t>day12</t>
   </si>
   <si>
-    <t>17/11/2021 13:44</t>
-  </si>
-  <si>
-    <t>17/11/2021 11:59</t>
+    <t>24/11/2021 10:39</t>
+  </si>
+  <si>
+    <t>KBANK</t>
+  </si>
+  <si>
+    <t>0874771650</t>
+  </si>
+  <si>
+    <t>aomsin12</t>
+  </si>
+  <si>
+    <t>24/11/2021 09:28</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -463,25 +472,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>9030804068</v>
+        <v>1062888063</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>21.1</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
